--- a/RNN_python/schd_sam_output_data/anom_data8.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data8.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43193</v>
+        <v>43229</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8749307800943</v>
+        <v>-9.696353097289389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43193.04166666666</v>
+        <v>43229.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>12.82401747631666</v>
+        <v>-11.83819292791043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43193.08333333334</v>
+        <v>43229.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4655804169734</v>
+        <v>-20.16535405260592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43193.125</v>
+        <v>43229.125</v>
       </c>
       <c r="D5" t="n">
-        <v>18.9806273185231</v>
+        <v>-19.23748272786187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43193.16666666666</v>
+        <v>43229.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>30.23987590022411</v>
+        <v>0.8439607930997397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43193.20833333334</v>
+        <v>43229.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>17.72567050047265</v>
+        <v>19.66881713530933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43193.25</v>
+        <v>43229.25</v>
       </c>
       <c r="D8" t="n">
-        <v>26.25312083017822</v>
+        <v>87.92354538879383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43193.29166666666</v>
+        <v>43229.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>53.61794688906217</v>
+        <v>285.5897808288207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43193.33333333334</v>
+        <v>43229.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>503.4192730071467</v>
+        <v>418.7977274374071</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43193.375</v>
+        <v>43229.375</v>
       </c>
       <c r="D11" t="n">
-        <v>433.215058951617</v>
+        <v>382.036403990383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43193.41666666666</v>
+        <v>43229.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>385.9292849671924</v>
+        <v>314.0424667600105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43193.45833333334</v>
+        <v>43229.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>251.8749493761051</v>
+        <v>257.6596280648029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43193.5</v>
+        <v>43229.5</v>
       </c>
       <c r="D14" t="n">
-        <v>251.5514084849532</v>
+        <v>224.2414397960463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43193.54166666666</v>
+        <v>43229.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>227.2818698346757</v>
+        <v>189.841491803239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43193.58333333334</v>
+        <v>43229.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>172.7422852056508</v>
+        <v>145.4025974757202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43193.625</v>
+        <v>43229.625</v>
       </c>
       <c r="D17" t="n">
-        <v>149.8286628766091</v>
+        <v>104.3933480606871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43193.66666666666</v>
+        <v>43229.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>120.8849960494905</v>
+        <v>72.94557381010357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43193.70833333334</v>
+        <v>43229.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>88.35968425352908</v>
+        <v>50.1371862145887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43193.75</v>
+        <v>43229.75</v>
       </c>
       <c r="D20" t="n">
-        <v>61.77225127001571</v>
+        <v>34.258589755909</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43193.79166666666</v>
+        <v>43229.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>42.36183484708572</v>
+        <v>23.33019315554516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43193.83333333334</v>
+        <v>43229.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>29.98165685811831</v>
+        <v>15.75947331594145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43193.875</v>
+        <v>43229.875</v>
       </c>
       <c r="D23" t="n">
-        <v>23.00947850188298</v>
+        <v>10.76172586463827</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43193.91666666666</v>
+        <v>43229.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>18.81197864588819</v>
+        <v>7.938418442846427</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43193.95833333334</v>
+        <v>43229.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>15.47164054809565</v>
+        <v>16.80141151916793</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43193</v>
+        <v>43229</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43193.04166666666</v>
+        <v>43229.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43193.08333333334</v>
+        <v>43229.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43193.125</v>
+        <v>43229.125</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43193.16666666666</v>
+        <v>43229.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43193.20833333334</v>
+        <v>43229.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43193.25</v>
+        <v>43229.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43193.29166666666</v>
+        <v>43229.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43193.33333333334</v>
+        <v>43229.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>381</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43193.375</v>
+        <v>43229.375</v>
       </c>
       <c r="D11" t="n">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43193.41666666666</v>
+        <v>43229.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>287</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43193.45833333334</v>
+        <v>43229.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43193.5</v>
+        <v>43229.5</v>
       </c>
       <c r="D14" t="n">
-        <v>182</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43193.54166666666</v>
+        <v>43229.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43193.58333333334</v>
+        <v>43229.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43193.625</v>
+        <v>43229.625</v>
       </c>
       <c r="D17" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43193.66666666666</v>
+        <v>43229.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43193.70833333334</v>
+        <v>43229.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43193.75</v>
+        <v>43229.75</v>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43193.79166666666</v>
+        <v>43229.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43193.83333333334</v>
+        <v>43229.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43193.875</v>
+        <v>43229.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43193.91666666666</v>
+        <v>43229.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43193.95833333334</v>
+        <v>43229.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data8.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data8.xlsx
@@ -417,247 +417,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43229</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.696353097289389</v>
+        <v>12.46435127914533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43229.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.83819292791043</v>
+        <v>5.542505866721768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43229.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-20.16535405260592</v>
+        <v>2.635118525201804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43229.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.23748272786187</v>
+        <v>0.8915833056292968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43229.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8439607930997397</v>
+        <v>-1.445539114889911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43229.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>19.66881713530933</v>
+        <v>-5.630129549070958</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43229.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92354538879383</v>
+        <v>-2.965201628422733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43229.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>285.5897808288207</v>
+        <v>43.60130465189894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43229.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>418.7977274374071</v>
+        <v>317.91680396166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43229.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>382.036403990383</v>
+        <v>370.6732385114891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43229.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>314.0424667600105</v>
+        <v>351.2894357802085</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43229.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>257.6596280648029</v>
+        <v>255.2676377224782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43229.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>224.2414397960463</v>
+        <v>224.0176284062305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43229.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>189.841491803239</v>
+        <v>190.6329307308822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43229.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>145.4025974757202</v>
+        <v>150.1313141325797</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43229.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>104.3933480606871</v>
+        <v>108.2933320280944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43229.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>72.94557381010357</v>
+        <v>77.22402215582467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43229.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>50.1371862145887</v>
+        <v>56.89885470454441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43229.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>34.258589755909</v>
+        <v>42.6357789046978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43229.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>23.33019315554516</v>
+        <v>32.08203494752911</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43229.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>15.75947331594145</v>
+        <v>24.07229557499308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43229.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.76172586463827</v>
+        <v>17.96541368539043</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43229.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.938418442846427</v>
+        <v>13.37055386081416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43229.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>16.80141151916793</v>
+        <v>-6.940474032728844</v>
       </c>
     </row>
   </sheetData>
@@ -706,44 +708,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43229</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43229.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43229.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43229.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -753,200 +757,200 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43229.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43229.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43229.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43229.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43229.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>460</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43229.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>394</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43229.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43229.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>211</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43229.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>238</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43229.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>181</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43229.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>185</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43229.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>131</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43229.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43229.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43229.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43229.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43229.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43229.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43229.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43229.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data8.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data8.xlsx
@@ -417,249 +417,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43290</v>
       </c>
       <c r="D2" t="n">
-        <v>12.46435127914533</v>
+        <v>-6.334813707808166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43290.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5.542505866721768</v>
+        <v>-0.6897643184080948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43290.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2.635118525201804</v>
+        <v>2.104477688117598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43290.125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8915833056292968</v>
+        <v>3.267235564340979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43290.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.445539114889911</v>
+        <v>5.027287321015166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43290.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.630129549070958</v>
+        <v>6.54613701418036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43290.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.965201628422733</v>
+        <v>20.71925259596155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43290.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>43.60130465189894</v>
+        <v>319.292913288656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43290.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>317.91680396166</v>
+        <v>349.7747757103313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43290.375</v>
       </c>
       <c r="D11" t="n">
-        <v>370.6732385114891</v>
+        <v>354.026389969379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43290.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>351.2894357802085</v>
+        <v>218.8118720547805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43290.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>255.2676377224782</v>
+        <v>220.4882216519752</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43290.5</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0176284062305</v>
+        <v>156.5807251420659</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43290.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>190.6329307308822</v>
+        <v>141.8748658976955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43290.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>150.1313141325797</v>
+        <v>94.19293410472532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43290.625</v>
       </c>
       <c r="D17" t="n">
-        <v>108.2933320280944</v>
+        <v>72.35647088818433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43290.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>77.22402215582467</v>
+        <v>48.0398294074324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43290.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>56.89885470454441</v>
+        <v>32.72833380194456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43290.75</v>
       </c>
       <c r="D20" t="n">
-        <v>42.6357789046978</v>
+        <v>21.17326455343162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43290.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>32.08203494752911</v>
+        <v>13.25331629996907</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43290.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>24.07229557499308</v>
+        <v>8.045988039650638</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43290.875</v>
       </c>
       <c r="D23" t="n">
-        <v>17.96541368539043</v>
+        <v>4.877086175224278</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43290.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>13.37055386081416</v>
+        <v>3.15868113305919</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43290.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.940474032728844</v>
+        <v>-1.931283094783538</v>
       </c>
     </row>
   </sheetData>
@@ -708,56 +706,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43290</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43290.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43290.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43290.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43290.16666666666</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -767,7 +763,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43290.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -777,180 +773,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43290.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43290.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43290.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>342</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43290.375</v>
       </c>
       <c r="D11" t="n">
-        <v>225</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43290.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>201</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43290.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>144</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43290.5</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43290.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43290.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43290.625</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43290.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43290.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43290.75</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43290.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43290.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43290.875</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43290.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43290.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data8.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data8.xlsx
@@ -417,247 +417,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43290</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.334813707808166</v>
+        <v>8.488140839577028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43290.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6897643184080948</v>
+        <v>3.273814631538613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43290.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2.104477688117598</v>
+        <v>7.781111890310697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43290.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.267235564340979</v>
+        <v>8.467065305380018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43290.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>5.027287321015166</v>
+        <v>6.902558654474646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43290.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6.54613701418036</v>
+        <v>7.548237071674279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43290.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>20.71925259596155</v>
+        <v>15.82160974168559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43290.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>319.292913288656</v>
+        <v>41.75628006879908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43290.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>349.7747757103313</v>
+        <v>444.7542707500471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43290.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>354.026389969379</v>
+        <v>350.2447368309592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43290.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>218.8118720547805</v>
+        <v>336.7953234082473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43290.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>220.4882216519752</v>
+        <v>204.0687653366941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43290.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>156.5807251420659</v>
+        <v>205.3787542747284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43290.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>141.8748658976955</v>
+        <v>171.1584033471878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43290.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>94.19293410472532</v>
+        <v>125.1783620081407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43290.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>72.35647088818433</v>
+        <v>88.53650047368706</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43290.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>48.0398294074324</v>
+        <v>62.93640141515107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43290.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>32.72833380194456</v>
+        <v>44.59008459584151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43290.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>21.17326455343162</v>
+        <v>31.18849962429995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43290.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>13.25331629996907</v>
+        <v>21.46209142117229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43290.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8.045988039650638</v>
+        <v>14.61472903448593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43290.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>4.877086175224278</v>
+        <v>10.08301259969519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43290.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>3.15868113305919</v>
+        <v>7.399777861833471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43290.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.931283094783538</v>
+        <v>5.194593126859914</v>
       </c>
     </row>
   </sheetData>
@@ -706,54 +708,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43290</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43290.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43290.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43290.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43290.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -763,7 +767,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43290.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -773,180 +777,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43290.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43290.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43290.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>489</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43290.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>397</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43290.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>411</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43290.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>230</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43290.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43290.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43290.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>169</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43290.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43290.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43290.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43290.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43290.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43290.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43290.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43290.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43290.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data8.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data8.xlsx
@@ -417,249 +417,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43152</v>
       </c>
       <c r="D2" t="n">
-        <v>8.488140839577028</v>
+        <v>30.8664555381325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43152.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>3.273814631538613</v>
+        <v>31.84839156841325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43152.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7.781111890310697</v>
+        <v>37.93430529544226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43152.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8.467065305380018</v>
+        <v>43.28829862608143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43152.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.902558654474646</v>
+        <v>46.69153604946891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43152.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7.548237071674279</v>
+        <v>31.69849001754604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43152.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15.82160974168559</v>
+        <v>-3.59617686165069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43152.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>41.75628006879908</v>
+        <v>89.89343537176126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43152.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>444.7542707500471</v>
+        <v>503.2738216506742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43152.375</v>
       </c>
       <c r="D11" t="n">
-        <v>350.2447368309592</v>
+        <v>443.8761826709426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43152.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>336.7953234082473</v>
+        <v>440.3285188308477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43152.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>204.0687653366941</v>
+        <v>308.1511020117694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43152.5</v>
       </c>
       <c r="D14" t="n">
-        <v>205.3787542747284</v>
+        <v>280.8736861670914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43152.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>171.1584033471878</v>
+        <v>260.6997781690898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43152.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>125.1783620081407</v>
+        <v>227.6197612271317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43152.625</v>
       </c>
       <c r="D17" t="n">
-        <v>88.53650047368706</v>
+        <v>203.1806493535031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43152.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>62.93640141515107</v>
+        <v>173.8575597833974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43152.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>44.59008459584151</v>
+        <v>135.619662030584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43152.75</v>
       </c>
       <c r="D20" t="n">
-        <v>31.18849962429995</v>
+        <v>95.82744433669822</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43152.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>21.46209142117229</v>
+        <v>64.71636558113707</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43152.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.61472903448593</v>
+        <v>44.15846383609507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43152.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.08301259969519</v>
+        <v>32.93561005963421</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43152.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.399777861833471</v>
+        <v>28.89587202279451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43152.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5.194593126859914</v>
+        <v>29.62838734038338</v>
       </c>
     </row>
   </sheetData>
@@ -708,86 +706,84 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43152</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43152.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43152.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43152.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43152.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43152.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43152.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43152.29166666666</v>
       </c>
       <c r="D9" t="n">
         <v>30</v>
@@ -797,160 +793,160 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43152.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>342</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43152.375</v>
       </c>
       <c r="D11" t="n">
-        <v>225</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43152.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>201</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43152.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>144</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43152.5</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43152.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43152.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43152.625</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43152.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43152.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43152.75</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43152.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43152.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43152.875</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43152.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43152.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
